--- a/UnitOps/BR_all_data_filled.xlsx
+++ b/UnitOps/BR_all_data_filled.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PyScripts\CBE\CBE\UnitOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB61CC2-2506-49AA-9B98-ECD579C5C0B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A8833-05B3-4443-8109-FF90FC7E7928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{D770C720-2859-4E1E-8A69-264879DCE44D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{D770C720-2859-4E1E-8A69-264879DCE44D}"/>
   </bookViews>
   <sheets>
     <sheet name="flask1" sheetId="1" r:id="rId1"/>
     <sheet name="flask2" sheetId="2" r:id="rId2"/>
     <sheet name="flask3" sheetId="3" r:id="rId3"/>
     <sheet name="flask4" sheetId="4" r:id="rId4"/>
+    <sheet name="Calculations" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Dilution Factor</t>
   </si>
@@ -58,6 +59,21 @@
   </si>
   <si>
     <t>Glucose Conc. (g/L)</t>
+  </si>
+  <si>
+    <t>flask1</t>
+  </si>
+  <si>
+    <t>flask2</t>
+  </si>
+  <si>
+    <t>flask3</t>
+  </si>
+  <si>
+    <t>flask4</t>
+  </si>
+  <si>
+    <t>td (hrs)</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F3CAC-F8AC-4A9A-8A9F-A8C755873AE4}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1876,4 +1892,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663CF995-E225-4265-BB66-F10A87EFEA1B}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1.85628475736428</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.94629744818642403</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2.7475123089973001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3.3468342284468799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UnitOps/BR_all_data_filled.xlsx
+++ b/UnitOps/BR_all_data_filled.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PyScripts\CBE\CBE\UnitOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Documents\Python Scripts\CBE\CBE\UnitOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A8833-05B3-4443-8109-FF90FC7E7928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAEBBD-026F-4C2F-8E2E-B8ACBF63492B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{D770C720-2859-4E1E-8A69-264879DCE44D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D770C720-2859-4E1E-8A69-264879DCE44D}"/>
   </bookViews>
   <sheets>
     <sheet name="flask1" sheetId="1" r:id="rId1"/>
@@ -447,28 +447,28 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -517,10 +517,10 @@
         <v>0.21275999999999901</v>
       </c>
       <c r="H2" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0.25</v>
       </c>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36666666666666714</v>
       </c>
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.46666666666666146</v>
       </c>
@@ -592,7 +592,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.56666666666666288</v>
       </c>
@@ -616,7 +616,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.6666666666666643</v>
       </c>
@@ -640,7 +640,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.76666666666666572</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.88333333333333286</v>
       </c>
@@ -688,7 +688,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1.0833333333333286</v>
       </c>
@@ -712,7 +712,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1.2333333333333272</v>
       </c>
@@ -736,7 +736,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1.3666666666666671</v>
       </c>
@@ -760,57 +760,57 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
   </sheetData>
@@ -823,23 +823,23 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -888,10 +888,10 @@
         <v>0.25631999999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.16666666666666663</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0.18672</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.26666666666666661</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0.27809999999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.3666666666666667</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0.28079999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0.48333333333333339</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0.31319999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0.56666666666666665</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0.29321999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0.66666666666666674</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>0.29430000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.81666666666666665</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0.3498</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1.0166666666666668</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0.33395999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1.1500000000000001</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0.34121999999999902</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1.3</v>
       </c>
@@ -1121,37 +1121,37 @@
         <v>0.34254000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
   </sheetData>
@@ -1164,21 +1164,21 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1228,10 +1228,10 @@
         <v>0.230879999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>9.9999999999999978E-2</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.21666666666666667</v>
       </c>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.31666666666666676</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.41666666666666663</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.51666666666666672</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.6</v>
       </c>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.81666666666666676</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.96666666666666667</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1.25</v>
       </c>
@@ -1471,53 +1471,53 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
   </sheetData>
@@ -1529,23 +1529,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F3CAC-F8AC-4A9A-8A9F-A8C755873AE4}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1594,11 +1594,10 @@
         <v>0.20880000000000001</v>
       </c>
       <c r="H2" s="1">
-        <f>12.5/0.05</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0.10000033333333347</v>
       </c>
@@ -1622,7 +1621,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.20000033333333334</v>
       </c>
@@ -1646,7 +1645,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.30000033333333342</v>
       </c>
@@ -1670,7 +1669,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.40000033333333329</v>
       </c>
@@ -1694,7 +1693,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.50000033333333338</v>
       </c>
@@ -1718,7 +1717,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.45000033333333334</v>
       </c>
@@ -1742,7 +1741,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.81666700000000003</v>
       </c>
@@ -1766,7 +1765,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.96666699999999994</v>
       </c>
@@ -1790,7 +1789,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1.1000003333333332</v>
       </c>
@@ -1814,7 +1813,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1.2333336666666666</v>
       </c>
@@ -1838,55 +1837,55 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
   </sheetData>
@@ -1898,18 +1897,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663CF995-E225-4265-BB66-F10A87EFEA1B}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>1.85628475736428</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>0.94629744818642403</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>2.7475123089973001</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
